--- a/Data/Keyz' Allow Utilities - 3524716849/3524716849.xlsx
+++ b/Data/Keyz' Allow Utilities - 3524716849/3524716849.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Main_250803" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="250725" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Main_250830" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="250803" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="250725" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="381">
   <si>
     <t xml:space="preserve">Class+Node [(Identifier (Key)]</t>
   </si>
@@ -146,6 +147,18 @@
     <t xml:space="preserve">동일 개체 선택</t>
   </si>
   <si>
+    <t xml:space="preserve">KeyBindingDef+KAU_SelectSimilarDesignator.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_SelectSimilarDesignator.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar (Designator)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동일 개체 선택 (구역)</t>
+  </si>
+  <si>
     <t xml:space="preserve">KeyBindingDef+KAU_HarvestFullyGrown.label</t>
   </si>
   <si>
@@ -158,6 +171,54 @@
     <t xml:space="preserve">완전히 성장한 식물 수확</t>
   </si>
   <si>
+    <t xml:space="preserve">KeyBindingDef+KAU_CutFullyGrown.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_CutFullyGrown.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut fully grown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 나무 벌목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyBindingDef+KAU_StripMine.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_StripMine.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strip Mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광맥 탐색</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyBindingDef+KAU_FertileGrowArea.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_FertileGrowArea.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Growing zone (Fertile only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">재배 구역 (비옥한 땅만)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KeyBindingDef+KAU_FertileGrowAreaExpand.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_FertileGrowAreaExpand.label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand zone (Fertile only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">구역 확장 (비옥한 땅만)</t>
+  </si>
+  <si>
     <t xml:space="preserve">KeyBindingDef+KAU_HaulUrgently.label</t>
   </si>
   <si>
@@ -350,580 +411,721 @@
     <t xml:space="preserve">Max selected items: [{0}]</t>
   </si>
   <si>
+    <t xml:space="preserve">최대한 선택한 개체: [{0}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_AllowAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_AllowAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow all across map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도에 존재하는 모든 개체의 상호작용 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ForbidAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ForbidAll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forbid all across map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도에 존재하는 모든 개체의 상호작용 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_Allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} things allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}개 개체의 상호작용이 허용되었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_Forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_Forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} things forbidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}개 개체의 상호작용이 금지되었습니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_MultiSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_MultiSelect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selection tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선택 도구</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_MultiSelectDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_MultiSelectDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various selection tools for this item type. Hold shift to ignore stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">동일한 개체 종류를 선택할 수 있는 각종 선택 도구입니다. 종류를 무시하려면 Shift 키를 누르십시오.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items on screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 화면 내에서 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도에 존재하는 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectInRect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectInRect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items in rect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선택 영역 내 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectOnScreenWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectOnScreenWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items on screen made from {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}(이)가 제작한 화면 내에서 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectOnMapWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectOnMapWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items on map made from {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}(이)가 제작한 지도에 존재하는 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectInRectWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectInRectWithStuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select similar items in rect made from {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}(이)가 제작한 선택 영역 내 동일 개체 선택</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HarvestGrown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HarvestGrown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvest grown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 식물 전체 수확</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HarvestGrownDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HarvestGrownDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools to harvest only grown plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 식물만 수확하는 도구입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HarvestOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HarvestOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvest all fully grown on screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 화면 내에서 완전히 성장한 식물 전체에 수확 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HarvestOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HarvestOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harvest all fully grown on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도에 존재하는 완전히 성장한 식물 전체에 수확 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_CutGrown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_CutGrown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut grown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 나무 전체 벌목</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_CutGrownDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_CutGrownDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tools to cut only grown plants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 나무만 벌목하는 도구입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_CutGrownOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_CutGrownOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut all fully grown on screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 화면 내에서 완전히 성장한 나무 전체에 벌목 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_CutGrownOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_CutGrownOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cut all fully grown on map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도에 존재하는 완전히 성장한 나무 전체에 벌목 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_NoKill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_NoKill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot finish off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인사살을 할 수 없습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_Kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finish off {0} [{1}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0} [{1}] 확인사살</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_StripKill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_StripKill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strip, then finish off {0} [{1}]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">옷벗기기 후 {0} [{1}] 확인사살</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_MeleeTooLow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_MeleeTooLow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melee too low {0}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{0}의 격투 레벨이 너무 낮습니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_Unable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_Unable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unable to melee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">격투가 결격입니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_HaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_HaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High-priority hauling.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">높은 우선 순위의 운반 명령입니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인사살 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleFinishOffDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle finishing off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인사살을 시행합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleFinishOffDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel finish off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인사살 지정 취소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleFinishOffDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인사살 지정을 취소합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우선 운반 지정</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우선 운반으로 지정합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel haul urgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우선 운반 지정 취소</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우선 운반 지정을 취소합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleNoHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleNoHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not haul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운반 금지</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleNoHaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleNoHaulUrgentlyDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운반을 금지합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleNoHaulUrgentlyDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleNoHaulUrgentlyDisable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow Hauling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운반 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleNoHaulUrgentlyDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleNoHaulUrgentlyDisableDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운반을 허용합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleHaulUrgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Haul Urgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우선 운반 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Finish Off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인 사살 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleStripMine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleStripMine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Strip Mine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광맥 탐색 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleAllowFinishOffOnFriendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleAllowFinishOffOnFriendly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow finish off on friendly pawns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">아군에게 확인 사살 허용</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleHarvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleHarvest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Harvest Designator and Gizmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 식물 수확 도구 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleCut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleCut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Cut Designator and Gizmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">완전히 성장한 나무 벌목 도구 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleSelection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleSelection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Selection Gizmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">선택 도구 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleFertileZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleFertileZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Fertile Grow Zone Designator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비옥한 재배 구역 지정 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleNoHauling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleNoHauling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable No Hauling Designator and Gizmos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">운반 금지 도구 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleDisableAllowShortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleDisableAllowShortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Allow/Forbid hotkeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">허용/금지 단축키 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectSimilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectSimilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_SelectSimilarDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_SelectSimilarDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selects items similar to those already selected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이미 선택한 것과 동일한 개체를 선택합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_ToggleDisableAllShortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_ToggleDisableAllShortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable all shortcuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">모든 단축키 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_DefErrorLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_DefErrorLog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log def error sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def 오류 출처 기록</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_DefErrorLogToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_DefErrorLogToolTip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs the source of any def errors in a new log-line after the error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def 오류 발생 시 오류의 출처를 새로운 행에 기록합니다</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_DisableMeleeRequirementForFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_DisableMeleeRequirementForFinishOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disable Melee requirement for finish off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">확인 사살에서 격투 레벨 요구 비활성화</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgentlyOnScreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haul all on screen urgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">현재 화면 내 개체 모두 우선 운반</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_ToggleHaulUrgentlyOnMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haul all on map urgently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">지도 내 개체 모두 우선 운반</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_GrowingZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_GrowingZone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_DesignatorGrowingZoneDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_DesignatorGrowingZoneDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a zone where your colonists will try to grow a certain kind of plant that only targets fertile tiles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정착민들이 비옥한 땅을 대상으로 식물을 재배할 수 있는 구역을 지정합니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_DesignatorZoneExpand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_DesignatorZoneExpand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_StripMine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_StripMine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KAU_StripMineDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KAU_StripMineDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mine a grid rather than everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전체를 파기보다는 격자로 채굴하는 게 낫죠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_NoHaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_NoHaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keyed+KUA_NoHaulDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUA_NoHaulDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevents this item from being hauled to e.g. stockpiles. This does not prevent the items being hauled to work - e.g. resources to a toolbench, or being used by a recipe at the toolbench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">해당 개체를 저장 구역등으로 운반하는 것을 방지합니다. 이는 해당 개체가 작업대에 자원으로서 또는 재료로서 이동하는 것을 방지하지 않습니다.</t>
+  </si>
+  <si>
     <t xml:space="preserve">최대한 선택한 개체: {{0}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_AllowAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_AllowAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allow all across map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도에 존재하는 모든 개체의 상호작용 허용</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ForbidAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ForbidAll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forbid all across map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도에 존재하는 모든 개체의 상호작용 금지</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_Allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_Allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} things allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}개 개체의 상호작용이 허용되었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_Forbidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_Forbidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} things forbidden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}개 개체의 상호작용이 금지되었습니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_MultiSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_MultiSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selection tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">선택 도구</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_MultiSelectDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_MultiSelectDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various selection tools for this item type. Hold shift to ignore stuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">동일한 개체 종류를 선택할 수 있는 각종 선택 도구입니다. 종류를 무시하려면 Shift 키를 누르십시오.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items on screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 화면 내에서 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items on map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도에 존재하는 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectInRect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectInRect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items in rect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">선택 영역 내 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectOnScreenWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectOnScreenWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items on screen made from {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}(이)가 제작한 화면 내에서 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectOnMapWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectOnMapWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items on map made from {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}(이)가 제작한 지도에 존재하는 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectInRectWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectInRectWithStuff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select similar items in rect made from {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}(이)가 제작한 선택 영역 내 동일 개체 선택</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HarvestGrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HarvestGrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvest grown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완전히 성장한 식물 전체 수확</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HarvestGrownDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HarvestGrownDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools to harvest only grown plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완전히 성장한 식물만 수확하는 도구입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HarvestOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HarvestOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvest all fully grown on screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 화면 내에서 완전히 성장한 식물 전체에 수확 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HarvestOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HarvestOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harvest all fully grown on map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도에 존재하는 완전히 성장한 식물 전체에 수확 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_CutGrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_CutGrown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut grown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완전히 성장한 나무 전체 벌목</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_CutGrownDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_CutGrownDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools to cut only grown plants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">완전히 성장한 나무만 벌목하는 도구입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_CutGrownOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_CutGrownOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut all fully grown on screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 화면 내에서 완전히 성장한 나무 전체에 벌목 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_CutGrownOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_CutGrownOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cut all fully grown on map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도에 존재하는 완전히 성장한 나무 전체에 벌목 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_NoKill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_NoKill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cannot finish off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인사살을 할 수 없습니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_Kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_Kill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish off {0} [{1}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0} [{1}] 확인사살</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_StripKill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_StripKill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strip, then finish off {0} [{1}]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">옷벗기기 후 {0} [{1}] 확인사살</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_MeleeTooLow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_MeleeTooLow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melee too low {0}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{0}의 격투 레벨이 너무 낮습니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_Unable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_Unable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unable to melee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">격투가 결격입니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_HaulUrgentlyDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_HaulUrgentlyDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">High-priority hauling.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">높은 우선 순위의 운반 명령입니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleFinishOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleFinishOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인사살 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleFinishOffDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle finishing off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인사살을 시행합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDisable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleFinishOffDisable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel finish off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인사살 지정 취소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleFinishOffDisableDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleFinishOffDisableDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인사살 지정을 취소합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우선 운반 지정</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우선 운반으로 지정합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDisable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDisable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cancel haul urgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우선 운반 지정 취소</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyDisableDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgentlyDisableDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우선 운반 지정을 취소합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_ToggleHaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_ToggleHaulUrgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable Haul Urgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">우선 운반 비활성화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_ToggleDisableAllowShortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_ToggleDisableAllowShortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable Allow/Forbid hotkeys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">허용/금지 단축키 비활성화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectSimilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectSimilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_SelectSimilarDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_SelectSimilarDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selects items similar to those already selected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">이미 선택한 것과 동일한 개체를 선택합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_ToggleDisableAllShortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_ToggleDisableAllShortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable all shortcuts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">모든 단축키 비활성화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_DefErrorLog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_DefErrorLog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log def error sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def 오류 출처 기록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_DefErrorLogToolTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_DefErrorLogToolTip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logs the source of any def errors in a new log-line after the error</t>
-  </si>
-  <si>
-    <t xml:space="preserve">def 오류 발생 시 오류의 출처를 새로운 행에 기록합니다</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_DisableMeleeRequirementForFinishOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_DisableMeleeRequirementForFinishOff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disable Melee requirement for finish off</t>
-  </si>
-  <si>
-    <t xml:space="preserve">확인 사살에서 격투 레벨 요구 비활성화</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgentlyOnScreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haul all on screen urgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">현재 화면 내 개체 모두 우선 운반</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KUA_ToggleHaulUrgentlyOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUA_ToggleHaulUrgentlyOnMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haul all on map urgently</t>
-  </si>
-  <si>
-    <t xml:space="preserve">지도 내 개체 모두 우선 운반</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_GrowingZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_GrowingZone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Growing zone (Fertile only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">재배 구역 (비옥한 땅만)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_DesignatorGrowingZoneDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_DesignatorGrowingZoneDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a zone where your colonists will try to grow a certain kind of plant that only targets fertile tiles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">정착민들이 비옥한 땅을 대상으로 식물을 재배할 수 있는 구역을 지정합니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_DesignatorZoneExpand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_DesignatorZoneExpand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand zone (Fertile only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">구역 확장 (비옥한 땅만)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_StripMine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_StripMine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Strip Mine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광맥 탐색</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keyed+KAU_StripMineDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KAU_StripMineDesc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mine a grid rather than everything</t>
-  </si>
-  <si>
-    <t xml:space="preserve">전체를 파기보다는 격자로 채굴하는 게 낫죠</t>
   </si>
   <si>
     <t xml:space="preserve">Stripping And Finishing off</t>
@@ -978,6 +1180,7 @@
       <color rgb="FF000000"/>
       <name val="나눔고딕"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -997,7 +1200,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="나눔고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1026,7 +1229,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1050,13 +1253,29 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,16 +1283,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -1081,6 +1292,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="표준 2" xfId="20"/>
+    <cellStyle name="표준 3" xfId="21"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1265,22 +1477,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.6640625" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.76953125" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="39.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.02"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="8" style="1" width="7.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.23"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="7.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,16 +1706,16 @@
         <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1512,7 +1723,7 @@
         <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>58</v>
@@ -1520,331 +1731,331 @@
       <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>48</v>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1852,13 +2063,13 @@
         <v>122</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>125</v>
@@ -1869,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>127</v>
@@ -1886,7 +2097,7 @@
         <v>130</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>131</v>
@@ -1903,7 +2114,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>135</v>
@@ -1920,7 +2131,7 @@
         <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>139</v>
@@ -1937,7 +2148,7 @@
         <v>142</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>143</v>
@@ -1954,7 +2165,7 @@
         <v>146</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>147</v>
@@ -1971,7 +2182,7 @@
         <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>151</v>
@@ -1988,7 +2199,7 @@
         <v>154</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>155</v>
@@ -2005,7 +2216,7 @@
         <v>158</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>159</v>
@@ -2022,7 +2233,7 @@
         <v>162</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>163</v>
@@ -2039,7 +2250,7 @@
         <v>166</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>167</v>
@@ -2056,7 +2267,7 @@
         <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>171</v>
@@ -2073,7 +2284,7 @@
         <v>174</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>175</v>
@@ -2090,7 +2301,7 @@
         <v>178</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>179</v>
@@ -2107,7 +2318,7 @@
         <v>182</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>183</v>
@@ -2124,7 +2335,7 @@
         <v>186</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>187</v>
@@ -2141,7 +2352,7 @@
         <v>190</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>191</v>
@@ -2158,7 +2369,7 @@
         <v>194</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>195</v>
@@ -2175,7 +2386,7 @@
         <v>198</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>199</v>
@@ -2192,7 +2403,7 @@
         <v>202</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>203</v>
@@ -2209,7 +2420,7 @@
         <v>206</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>207</v>
@@ -2226,319 +2437,319 @@
         <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>51</v>
+        <v>220</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>229</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>47</v>
+        <v>234</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>245</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>40</v>
+        <v>255</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="F72" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>276</v>
@@ -2549,7 +2760,7 @@
         <v>277</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>278</v>
@@ -2557,7 +2768,7 @@
       <c r="E75" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F75" s="3" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2566,7 +2777,7 @@
         <v>281</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>282</v>
@@ -2583,7 +2794,7 @@
         <v>285</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>286</v>
@@ -2600,7 +2811,7 @@
         <v>289</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>290</v>
@@ -2617,7 +2828,7 @@
         <v>293</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>294</v>
@@ -2634,7 +2845,7 @@
         <v>297</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>298</v>
@@ -2644,6 +2855,329 @@
       </c>
       <c r="F80" s="1" t="s">
         <v>300</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2662,21 +3196,1419 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F80"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.6171875" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="42.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="35.08"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="39.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16383" min="8" style="4" width="7.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="4" width="9.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.51171875" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7.53515625" defaultRowHeight="16.5" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="41.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="28.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="74.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="7.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="41.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="28.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="22.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="31.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="74.77"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="3" width="7.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2744,7 +4676,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>301</v>
+        <v>368</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -2837,999 +4769,999 @@
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>304</v>
+        <v>371</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>109</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="3" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="3" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="3" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="3" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3" t="s">
-        <v>243</v>
+        <v>277</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>39</v>
@@ -3840,36 +5772,36 @@
     </row>
     <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
